--- a/RELATORIOS/GRAFICOS.xlsx
+++ b/RELATORIOS/GRAFICOS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSERÇÃO – VETOR" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="INSERÇÃO – VETOR_2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="BUBBLE SORT - VETOR" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="MERGE SORT – VETOR" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="BUSCA LINEAR – VETOR" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="BUSCA BINÁRIA – VETOR" sheetId="5" state="visible" r:id="rId7"/>
@@ -120,21 +120,25 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -203,43 +207,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,6 +339,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Times New Roman"/>
                 <a:ea typeface="Segoe UI"/>
@@ -382,12 +389,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="600" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -533,12 +544,16 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -552,12 +567,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -654,17 +673,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="22002558"/>
-        <c:axId val="93607041"/>
+        <c:axId val="77115538"/>
+        <c:axId val="31259680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22002558"/>
+        <c:axId val="77115538"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -681,13 +700,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93607041"/>
+        <c:crossAx val="31259680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -695,7 +717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93607041"/>
+        <c:axId val="31259680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +732,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -727,13 +749,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22002558"/>
+        <c:crossAx val="77115538"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,6 +786,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -801,6 +829,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:rPr>
@@ -828,7 +859,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'INSERÇÃO – VETOR_2'!$C$3</c:f>
+              <c:f>'BUBBLE SORT - VETOR'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -847,12 +878,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -884,7 +919,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'INSERÇÃO – VETOR_2'!$B$4:$B$12</c:f>
+              <c:f>'BUBBLE SORT - VETOR'!$B$4:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -919,7 +954,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'INSERÇÃO – VETOR_2'!$C$4:$C$12</c:f>
+              <c:f>'BUBBLE SORT - VETOR'!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -959,7 +994,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'INSERÇÃO – VETOR_2'!$D$3</c:f>
+              <c:f>'BUBBLE SORT - VETOR'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,6 +1019,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -1015,7 +1053,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'INSERÇÃO – VETOR_2'!$B$4:$B$12</c:f>
+              <c:f>'BUBBLE SORT - VETOR'!$B$4:$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1050,7 +1088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'INSERÇÃO – VETOR_2'!$D$4:$D$12</c:f>
+              <c:f>'BUBBLE SORT - VETOR'!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1087,17 +1125,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26913417"/>
-        <c:axId val="92517478"/>
+        <c:axId val="58153124"/>
+        <c:axId val="52263712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26913417"/>
+        <c:axId val="58153124"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1114,13 +1152,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92517478"/>
+        <c:crossAx val="52263712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92517478"/>
+        <c:axId val="52263712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1184,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1160,13 +1201,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26913417"/>
+        <c:crossAx val="58153124"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1194,6 +1238,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -1234,6 +1281,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:rPr>
@@ -1287,6 +1337,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -1418,6 +1471,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -1521,11 +1577,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="50311028"/>
-        <c:axId val="5033626"/>
+        <c:axId val="98082418"/>
+        <c:axId val="31890941"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50311028"/>
+        <c:axId val="98082418"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,13 +1604,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5033626"/>
+        <c:crossAx val="31890941"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1562,7 +1621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5033626"/>
+        <c:axId val="31890941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,13 +1653,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50311028"/>
+        <c:crossAx val="98082418"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,6 +1690,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -1668,6 +1733,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:rPr>
@@ -1720,12 +1788,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1886,12 +1958,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2024,17 +2100,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="99073760"/>
-        <c:axId val="19027792"/>
+        <c:axId val="28089085"/>
+        <c:axId val="46670284"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99073760"/>
+        <c:axId val="28089085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2051,13 +2127,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19027792"/>
+        <c:crossAx val="46670284"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2065,7 +2144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19027792"/>
+        <c:axId val="46670284"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2159,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2097,13 +2176,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99073760"/>
+        <c:crossAx val="28089085"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2131,6 +2213,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -2171,6 +2256,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:rPr>
@@ -2223,12 +2311,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2389,12 +2481,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2527,11 +2623,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="20265151"/>
-        <c:axId val="50405610"/>
+        <c:axId val="808193"/>
+        <c:axId val="34941024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20265151"/>
+        <c:axId val="808193"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,13 +2650,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50405610"/>
+        <c:crossAx val="34941024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2568,7 +2667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50405610"/>
+        <c:axId val="34941024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,13 +2699,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20265151"/>
+        <c:crossAx val="808193"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2634,6 +2736,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -2674,6 +2779,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Times New Roman"/>
                 <a:ea typeface="Segoe UI"/>
@@ -2728,6 +2836,9 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="600" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -2873,12 +2984,16 @@
                 <a:p>
                   <a:pPr>
                     <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
                       <a:uFillTx/>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2892,12 +3007,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2994,11 +3113,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="28963469"/>
-        <c:axId val="60133965"/>
+        <c:axId val="72061504"/>
+        <c:axId val="70148459"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="28963469"/>
+        <c:axId val="72061504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,13 +3140,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60133965"/>
+        <c:crossAx val="70148459"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3035,7 +3157,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60133965"/>
+        <c:axId val="70148459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,13 +3189,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28963469"/>
+        <c:crossAx val="72061504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3101,6 +3226,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -3141,6 +3269,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:rPr>
@@ -3193,12 +3324,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3359,12 +3494,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3497,17 +3636,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="59697173"/>
-        <c:axId val="96618682"/>
+        <c:axId val="48764721"/>
+        <c:axId val="64611812"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59697173"/>
+        <c:axId val="48764721"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3524,13 +3663,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96618682"/>
+        <c:crossAx val="64611812"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96618682"/>
+        <c:axId val="64611812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3695,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3570,13 +3712,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59697173"/>
+        <c:crossAx val="48764721"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3604,6 +3749,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -3644,6 +3792,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1300" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:rPr>
@@ -3696,12 +3847,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3826,12 +3981,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3928,17 +4087,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88158584"/>
-        <c:axId val="46582061"/>
+        <c:axId val="28609966"/>
+        <c:axId val="21066937"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88158584"/>
+        <c:axId val="28609966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3955,13 +4114,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46582061"/>
+        <c:crossAx val="21066937"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3969,7 +4131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46582061"/>
+        <c:axId val="21066937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3984,7 +4146,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4001,13 +4163,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88158584"/>
+        <c:crossAx val="28609966"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4035,6 +4200,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -4075,6 +4243,9 @@
             </a:pPr>
             <a:r>
               <a:rPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Times New Roman"/>
                 <a:ea typeface="Segoe UI"/>
@@ -4128,12 +4299,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4294,12 +4469,16 @@
               <a:p>
                 <a:pPr>
                   <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4432,11 +4611,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88556841"/>
-        <c:axId val="92583054"/>
+        <c:axId val="80892022"/>
+        <c:axId val="41461574"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88556841"/>
+        <c:axId val="80892022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4459,13 +4638,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92583054"/>
+        <c:crossAx val="41461574"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4473,7 +4655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92583054"/>
+        <c:axId val="41461574"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4505,13 +4687,16 @@
           <a:p>
             <a:pPr>
               <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:uFillTx/>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88556841"/>
+        <c:crossAx val="80892022"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4539,6 +4724,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr b="0" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:uFillTx/>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -4571,9 +4759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110880</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4582,7 +4770,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3062880" y="238320"/>
-        <a:ext cx="4568400" cy="2569680"/>
+        <a:ext cx="4568040" cy="2569320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4606,9 +4794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4617,7 +4805,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2817360" y="248400"/>
-        <a:ext cx="4906800" cy="2395440"/>
+        <a:ext cx="4906440" cy="2395080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4641,9 +4829,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4652,7 +4840,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2817360" y="248400"/>
-        <a:ext cx="4906800" cy="2395440"/>
+        <a:ext cx="4906440" cy="2395080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4676,9 +4864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4687,7 +4875,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3099960" y="527760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4711,9 +4899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>273600</xdr:colOff>
+      <xdr:colOff>273240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4722,7 +4910,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3099960" y="527760"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4746,9 +4934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110880</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4757,7 +4945,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3062880" y="238320"/>
-        <a:ext cx="4568400" cy="2569680"/>
+        <a:ext cx="4568040" cy="2569320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4781,9 +4969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
+      <xdr:colOff>607680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4792,7 +4980,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3181680" y="225720"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4816,9 +5004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>402480</xdr:colOff>
+      <xdr:colOff>402120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4827,7 +5015,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2976120" y="167400"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4851,9 +5039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
+      <xdr:colOff>607680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4862,7 +5050,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3181680" y="225720"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5097,7 +5285,7 @@
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5241,7 +5429,7 @@
   </sheetPr>
   <dimension ref="B1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
